--- a/biology/Biochimie/Glucose-1,6-bisphosphate/Glucose-1,6-bisphosphate.xlsx
+++ b/biology/Biochimie/Glucose-1,6-bisphosphate/Glucose-1,6-bisphosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le glucose-1,6-bisphosphate est un organophosphate dérivé du glucose considéré comme un important régulateur du métabolisme des glucides. On a montré qu'il s'agit d'un puissant activateur de la phosphofructokinase (PFK) et de la phosphoglucomutase (PGM) du muscle squelettique en même temps qu'un inhibiteur de l'hexokinase[2], de la 6-phosphogluconate déshydrogénase de plusieurs tissus chez la souris ainsi que de la fructose-1,6-bisphosphatase dans le foie de bovins. Il interviendrait dans la signalisation cellulaire au niveau du métabolisme, notamment de l'affinité en oxygène des érythrocytes.
+Le glucose-1,6-bisphosphate est un organophosphate dérivé du glucose considéré comme un important régulateur du métabolisme des glucides. On a montré qu'il s'agit d'un puissant activateur de la phosphofructokinase (PFK) et de la phosphoglucomutase (PGM) du muscle squelettique en même temps qu'un inhibiteur de l'hexokinase, de la 6-phosphogluconate déshydrogénase de plusieurs tissus chez la souris ainsi que de la fructose-1,6-bisphosphatase dans le foie de bovins. Il interviendrait dans la signalisation cellulaire au niveau du métabolisme, notamment de l'affinité en oxygène des érythrocytes.
 La concentration en glucose-1,6-bisphosphate dans les tissus est affectée par plusieurs facteurs. L'anoxie conduit à une chute rapide du taux de glucose-1,6-bisphosphate dans le cerveau. Le taux de glucose-1,6-bisphosphate décroît également dans le foie de souris diabétiques, ainsi que dans le muscle de souris présentant une dystrophie génétique, peut-être à la suite d'une augmentation de l'activité glucose-1,6-bisphosphatase.
-Le taux de glucose-1,6-bisphosphate, qui est un inhibiteur de l'hexokinase, croît significativement (d'environ 25 %) après 5 minutes d'exercice physique puis décroît régulièrement[3]. C'est un activateur allostérique de la phosphofructokinase, et sa concentration diminue dans les muscles de patients atteints de glycogénose type 5 (déficit en phosphorylase musculaire) et type 7 (déficit en phosphofructokinase musculaire)[2]. 
-L'absorption régulière d'alcool chez l'homme accroît la concentration en glucose-1,6-bisphosphate avant l'apparition des premiers signes de myopathie ; lorsque celle-ci se déclare, le taux de glucose-1,6-bisphosphate revient à sa valeur normale. Ces changements pourraient contribuer au déclin des performances des muscles squelettiques[4].
+Le taux de glucose-1,6-bisphosphate, qui est un inhibiteur de l'hexokinase, croît significativement (d'environ 25 %) après 5 minutes d'exercice physique puis décroît régulièrement. C'est un activateur allostérique de la phosphofructokinase, et sa concentration diminue dans les muscles de patients atteints de glycogénose type 5 (déficit en phosphorylase musculaire) et type 7 (déficit en phosphofructokinase musculaire). 
+L'absorption régulière d'alcool chez l'homme accroît la concentration en glucose-1,6-bisphosphate avant l'apparition des premiers signes de myopathie ; lorsque celle-ci se déclare, le taux de glucose-1,6-bisphosphate revient à sa valeur normale. Ces changements pourraient contribuer au déclin des performances des muscles squelettiques.
 </t>
         </is>
       </c>
